--- a/biology/Histoire de la zoologie et de la botanique/Musée_Bishop/Musée_Bishop.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_Bishop/Musée_Bishop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Bishop</t>
+          <t>Musée_Bishop</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée Bernice Pauahi Bishop (en anglais, Bernice Pauahi Bishop Museum), désigné officiellement le musée d'histoire naturelle et culturelle de l'État d'Hawaï (en anglais, Hawaiʻi State Museum of Natural and Cultural History) a été fondé en 1889 par Charles Reed Bishop (1822-1915) en l'honneur de sa défunte femme, la princesse Bernice Pauahi Bishop (1831-1884), la dernière descendante de la famille royale Kamehameha. Le Musée est installé dans la maison qui contenait la collection d'objets Hawaiiens reçus en héritage par la princesse. Le Musée est reconnu par l'association américaine de Musées (American Association of Museums).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Bishop</t>
+          <t>Musée_Bishop</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé dans le quartier historique de Kalihi d'Honolulu sur l'île d'O'ahu. Outre les collections d'objets Hawaiiens, le Musée conserve la troisième plus importante collection d'insectes des États-Unis qui est riche de 13,5 millions de spécimens.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Bishop</t>
+          <t>Musée_Bishop</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'art de Polynésie, Micronésie...
 Abigail Kinoiki Kekaulike Kāhili (salle)
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_Bishop</t>
+          <t>Musée_Bishop</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste de musées d'histoire naturelle</t>
         </is>
